--- a/helper_tools/binding_template_us104key.xlsx
+++ b/helper_tools/binding_template_us104key.xlsx
@@ -5,11 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Cfg" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Notes" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Notes" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Cfg" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="Input" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Output" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Misc" sheetId="5" state="visible" r:id="rId6"/>
@@ -29,6 +29,24 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2099" uniqueCount="181">
   <si>
+    <t xml:space="preserve">Instructions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Type the commands into the Input sheet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Make sure to type "\\n" for line breaks (without quotes).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Copy and paste the yellow parts of the Output sheet into the email form located at Isometricland.net. It's okay if several of the lines are blank.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Send the email via that form.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Password to unlock sheets is "keyboard".</t>
+  </si>
+  <si>
     <t xml:space="preserve">Color</t>
   </si>
   <si>
@@ -117,24 +135,6 @@
   </si>
   <si>
     <t xml:space="preserve">brn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Instructions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Type the commands into the Input sheet.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Make sure to type "\\n" for line breaks (without quotes).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3. Copy the contents of the Output sheet into an email message. It's okay if several of the lines are blank.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Send the email to Michael Horvath via the email form at Isometricland.net.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Password to unlock sheets is "keyboard".</t>
   </si>
   <si>
     <t xml:space="preserve">Key</t>
@@ -606,17 +606,17 @@
     <font>
       <b val="true"/>
       <i val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <i val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -793,6 +793,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -838,10 +842,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -894,10 +894,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="C5:C12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="1" sqref="C9:D9 D10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -905,222 +905,38 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="0" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C9" s="0" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="0" t="n">
-        <v>12</v>
-      </c>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E8" s="7"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="E9" s="8"/>
-    </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E10" s="9"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E12" s="11"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E13" s="12"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E14" s="13"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="true" objects="true" scenarios="true"/>
+  <sheetProtection sheet="true" password="8249" objects="true" scenarios="true"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1136,10 +952,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="C5:C12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F36" activeCellId="1" sqref="C9:D9 F36"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1147,35 +963,219 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.54"/>
   </cols>
   <sheetData>
+    <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4"/>
+    </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="14" t="s">
+      <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E7" s="7"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E9" s="9"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="s">
+      <c r="C10" s="0" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="s">
+      <c r="D10" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="0" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="s">
+      <c r="C11" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
+      <c r="C12" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="12"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="s">
+      <c r="C13" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="E13" s="13"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>35</v>
       </c>
+      <c r="C14" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E14" s="14"/>
     </row>
   </sheetData>
   <sheetProtection sheet="true" objects="true" scenarios="true"/>
@@ -1196,12 +1196,12 @@
   </sheetPr>
   <dimension ref="A1:P119"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="C1" activeCellId="0" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" activeCellId="0" sqref="C9:D9"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1268,46 +1268,46 @@
         <v>1</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G2" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H2" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I2" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J2" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K2" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L2" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M2" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O2" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P2" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1319,46 +1319,46 @@
         <v>2</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K3" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L3" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M3" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N3" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P3" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1370,46 +1370,46 @@
         <v>3</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K4" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L4" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M4" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N4" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O4" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P4" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1421,46 +1421,46 @@
         <v>4</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E5" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K5" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L5" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M5" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N5" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O5" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P5" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1472,46 +1472,46 @@
         <v>5</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M6" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N6" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O6" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P6" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1523,46 +1523,46 @@
         <v>6</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K7" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M7" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N7" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O7" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P7" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1574,46 +1574,46 @@
         <v>7</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K8" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L8" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M8" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N8" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O8" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P8" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1625,46 +1625,46 @@
         <v>8</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L9" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N9" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O9" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P9" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1676,46 +1676,46 @@
         <v>9</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K10" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L10" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M10" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N10" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O10" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P10" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1727,46 +1727,46 @@
         <v>10</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K11" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L11" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M11" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N11" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O11" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P11" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1778,46 +1778,46 @@
         <v>11</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K12" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L12" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M12" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N12" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O12" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P12" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1829,46 +1829,46 @@
         <v>12</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K13" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L13" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M13" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N13" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O13" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P13" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1880,46 +1880,46 @@
         <v>13</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K14" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L14" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M14" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N14" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O14" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P14" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1931,46 +1931,46 @@
         <v>14</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J15" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K15" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L15" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M15" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N15" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O15" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P15" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1982,46 +1982,46 @@
         <v>15</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H16" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J16" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K16" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L16" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M16" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N16" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O16" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P16" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2033,46 +2033,46 @@
         <v>16</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G17" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H17" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J17" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L17" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M17" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N17" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O17" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P17" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2084,46 +2084,46 @@
         <v>17</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G18" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H18" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J18" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K18" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L18" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M18" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N18" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O18" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P18" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2135,46 +2135,46 @@
         <v>18</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J19" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K19" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L19" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M19" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N19" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O19" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P19" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2186,46 +2186,46 @@
         <v>19</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K20" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L20" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M20" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N20" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O20" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P20" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2237,46 +2237,46 @@
         <v>20</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J21" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K21" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L21" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M21" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N21" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O21" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P21" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2288,46 +2288,46 @@
         <v>21</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H22" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J22" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K22" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L22" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M22" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N22" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O22" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P22" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2339,46 +2339,46 @@
         <v>22</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H23" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J23" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K23" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L23" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M23" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N23" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O23" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P23" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2390,46 +2390,46 @@
         <v>23</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H24" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J24" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K24" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L24" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M24" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N24" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O24" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P24" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2441,46 +2441,46 @@
         <v>24</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H25" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J25" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L25" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M25" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N25" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O25" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P25" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2492,46 +2492,46 @@
         <v>25</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H26" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J26" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K26" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L26" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M26" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N26" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O26" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P26" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2543,46 +2543,46 @@
         <v>26</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J27" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K27" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L27" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M27" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N27" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O27" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P27" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2594,46 +2594,46 @@
         <v>27</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J28" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K28" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L28" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M28" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N28" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O28" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P28" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2645,46 +2645,46 @@
         <v>28</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J29" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K29" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L29" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M29" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N29" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O29" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P29" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2696,46 +2696,46 @@
         <v>29</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J30" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K30" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L30" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M30" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N30" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O30" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P30" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2747,46 +2747,46 @@
         <v>30</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F31" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H31" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J31" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K31" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L31" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M31" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N31" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O31" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P31" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2798,46 +2798,46 @@
         <v>31</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H32" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J32" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K32" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M32" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N32" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O32" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P32" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2849,46 +2849,46 @@
         <v>32</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J33" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K33" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L33" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M33" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N33" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O33" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P33" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2900,46 +2900,46 @@
         <v>33</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J34" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K34" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L34" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M34" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N34" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O34" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P34" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2951,46 +2951,46 @@
         <v>34</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G35" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H35" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J35" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K35" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L35" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M35" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N35" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O35" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P35" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3002,46 +3002,46 @@
         <v>35</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J36" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K36" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L36" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M36" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N36" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O36" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P36" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3053,46 +3053,46 @@
         <v>36</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H37" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I37" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L37" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M37" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N37" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O37" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P37" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3104,46 +3104,46 @@
         <v>37</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I38" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J38" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K38" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L38" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M38" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N38" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O38" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P38" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3155,46 +3155,46 @@
         <v>38</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J39" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K39" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L39" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M39" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N39" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O39" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P39" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3206,46 +3206,46 @@
         <v>39</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I40" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J40" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K40" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L40" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M40" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N40" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O40" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P40" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3257,46 +3257,46 @@
         <v>40</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H41" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I41" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J41" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K41" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L41" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M41" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N41" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O41" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P41" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3308,46 +3308,46 @@
         <v>41</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H42" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I42" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J42" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K42" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L42" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M42" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N42" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O42" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P42" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3359,46 +3359,46 @@
         <v>42</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H43" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I43" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J43" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K43" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L43" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M43" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N43" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O43" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P43" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3410,46 +3410,46 @@
         <v>43</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H44" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I44" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J44" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K44" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L44" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M44" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N44" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O44" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P44" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3461,46 +3461,46 @@
         <v>44</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H45" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J45" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K45" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L45" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M45" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N45" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O45" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P45" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3512,46 +3512,46 @@
         <v>45</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H46" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I46" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J46" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K46" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L46" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M46" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N46" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O46" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P46" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3563,46 +3563,46 @@
         <v>46</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H47" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I47" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J47" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K47" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L47" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M47" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N47" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O47" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P47" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3614,46 +3614,46 @@
         <v>47</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H48" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J48" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K48" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L48" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M48" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N48" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O48" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P48" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3665,46 +3665,46 @@
         <v>48</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H49" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I49" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J49" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K49" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L49" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M49" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N49" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O49" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P49" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3716,46 +3716,46 @@
         <v>49</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H50" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I50" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J50" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K50" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L50" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M50" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N50" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O50" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P50" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3767,46 +3767,46 @@
         <v>50</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H51" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I51" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J51" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K51" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L51" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M51" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N51" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O51" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P51" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3818,46 +3818,46 @@
         <v>51</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H52" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I52" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J52" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K52" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L52" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M52" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N52" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O52" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P52" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3869,46 +3869,46 @@
         <v>52</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F53" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G53" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H53" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I53" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J53" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K53" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L53" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M53" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N53" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O53" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P53" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3920,46 +3920,46 @@
         <v>53</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G54" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H54" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I54" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J54" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K54" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L54" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M54" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N54" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O54" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P54" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3971,46 +3971,46 @@
         <v>54</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H55" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I55" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J55" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K55" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L55" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M55" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N55" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O55" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P55" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4022,46 +4022,46 @@
         <v>55</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H56" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I56" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J56" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K56" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L56" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M56" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N56" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O56" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P56" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4073,46 +4073,46 @@
         <v>56</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G57" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H57" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I57" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J57" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K57" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L57" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M57" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N57" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O57" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P57" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4124,46 +4124,46 @@
         <v>57</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F58" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H58" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J58" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K58" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L58" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M58" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N58" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O58" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P58" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4175,46 +4175,46 @@
         <v>58</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F59" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H59" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I59" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J59" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K59" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L59" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M59" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N59" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O59" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P59" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4226,46 +4226,46 @@
         <v>59</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F60" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G60" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H60" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I60" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J60" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K60" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L60" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M60" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N60" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O60" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P60" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4277,46 +4277,46 @@
         <v>60</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F61" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G61" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H61" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I61" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J61" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K61" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L61" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M61" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N61" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O61" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P61" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4328,46 +4328,46 @@
         <v>61</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D62" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E62" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F62" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H62" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I62" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J62" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K62" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L62" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M62" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N62" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O62" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P62" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4379,46 +4379,46 @@
         <v>62</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D63" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E63" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F63" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G63" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H63" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I63" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J63" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K63" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L63" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M63" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N63" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O63" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P63" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4430,46 +4430,46 @@
         <v>63</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D64" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E64" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F64" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G64" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H64" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I64" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J64" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K64" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L64" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M64" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N64" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O64" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P64" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4481,46 +4481,46 @@
         <v>64</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D65" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E65" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F65" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H65" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I65" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J65" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K65" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L65" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M65" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N65" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O65" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P65" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4532,46 +4532,46 @@
         <v>65</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H66" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I66" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J66" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K66" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L66" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M66" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N66" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O66" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P66" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4583,46 +4583,46 @@
         <v>66</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H67" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J67" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K67" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L67" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M67" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N67" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O67" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P67" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4634,46 +4634,46 @@
         <v>67</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G68" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H68" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I68" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J68" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K68" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L68" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M68" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N68" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O68" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P68" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4685,46 +4685,46 @@
         <v>68</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E69" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G69" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H69" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J69" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K69" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L69" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M69" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N69" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O69" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P69" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4736,46 +4736,46 @@
         <v>69</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D70" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E70" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F70" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G70" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H70" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I70" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J70" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K70" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L70" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M70" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N70" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O70" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P70" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4787,46 +4787,46 @@
         <v>70</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D71" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E71" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G71" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H71" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I71" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J71" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K71" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L71" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M71" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N71" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O71" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P71" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4838,46 +4838,46 @@
         <v>71</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D72" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E72" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F72" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G72" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H72" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I72" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J72" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K72" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L72" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M72" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N72" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O72" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P72" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4889,46 +4889,46 @@
         <v>72</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D73" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E73" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F73" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G73" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H73" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I73" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J73" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K73" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L73" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M73" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N73" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O73" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P73" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4940,46 +4940,46 @@
         <v>73</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E74" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F74" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G74" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H74" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I74" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J74" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K74" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L74" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M74" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N74" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O74" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P74" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4991,46 +4991,46 @@
         <v>74</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E75" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F75" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H75" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I75" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J75" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K75" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L75" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M75" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N75" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O75" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P75" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5042,46 +5042,46 @@
         <v>75</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E76" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F76" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G76" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H76" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I76" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J76" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K76" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L76" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M76" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N76" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O76" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P76" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5093,46 +5093,46 @@
         <v>76</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E77" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F77" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G77" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H77" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I77" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J77" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K77" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L77" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M77" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N77" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O77" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P77" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5144,46 +5144,46 @@
         <v>77</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E78" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F78" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G78" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H78" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J78" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K78" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L78" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M78" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N78" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O78" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P78" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5195,46 +5195,46 @@
         <v>78</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D79" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E79" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F79" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G79" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H79" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J79" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K79" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L79" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M79" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N79" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O79" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P79" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5246,46 +5246,46 @@
         <v>79</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D80" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E80" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F80" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G80" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H80" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I80" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J80" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K80" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L80" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M80" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N80" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O80" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P80" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5297,46 +5297,46 @@
         <v>80</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E81" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F81" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G81" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H81" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I81" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J81" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K81" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L81" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M81" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N81" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O81" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P81" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5348,46 +5348,46 @@
         <v>81</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D82" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E82" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F82" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G82" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H82" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J82" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K82" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L82" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M82" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N82" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O82" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P82" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5399,46 +5399,46 @@
         <v>82</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D83" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E83" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F83" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G83" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H83" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I83" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J83" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K83" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L83" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M83" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N83" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O83" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P83" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5450,46 +5450,46 @@
         <v>83</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D84" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E84" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F84" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G84" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H84" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J84" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K84" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L84" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M84" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N84" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O84" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P84" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5501,46 +5501,46 @@
         <v>84</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D85" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E85" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F85" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G85" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H85" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I85" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J85" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K85" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L85" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M85" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N85" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O85" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P85" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5552,46 +5552,46 @@
         <v>85</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D86" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E86" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F86" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G86" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H86" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I86" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J86" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K86" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L86" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M86" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N86" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O86" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P86" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5603,46 +5603,46 @@
         <v>86</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D87" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E87" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F87" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G87" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H87" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I87" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J87" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K87" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L87" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M87" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N87" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O87" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P87" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5654,46 +5654,46 @@
         <v>87</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D88" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E88" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F88" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G88" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H88" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I88" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J88" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K88" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L88" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M88" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N88" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O88" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P88" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5705,46 +5705,46 @@
         <v>88</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D89" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E89" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F89" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G89" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H89" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I89" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J89" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K89" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L89" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M89" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N89" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O89" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P89" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5756,46 +5756,46 @@
         <v>89</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D90" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E90" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F90" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G90" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H90" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I90" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J90" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K90" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L90" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M90" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N90" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O90" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P90" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5807,46 +5807,46 @@
         <v>90</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D91" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E91" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F91" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G91" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H91" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I91" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J91" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K91" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L91" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M91" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N91" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O91" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P91" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5858,46 +5858,46 @@
         <v>91</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E92" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F92" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G92" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H92" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I92" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J92" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K92" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L92" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M92" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N92" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O92" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P92" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5909,46 +5909,46 @@
         <v>92</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E93" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F93" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G93" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H93" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I93" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J93" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K93" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L93" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M93" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N93" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O93" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P93" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5960,46 +5960,46 @@
         <v>93</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D94" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E94" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F94" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G94" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H94" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I94" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J94" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K94" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L94" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M94" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N94" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O94" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P94" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6011,46 +6011,46 @@
         <v>94</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D95" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E95" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F95" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G95" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H95" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I95" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J95" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K95" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L95" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M95" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N95" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O95" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P95" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6062,46 +6062,46 @@
         <v>95</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E96" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F96" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G96" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H96" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I96" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J96" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K96" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L96" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M96" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N96" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O96" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P96" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6113,46 +6113,46 @@
         <v>96</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E97" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F97" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G97" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H97" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I97" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J97" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K97" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L97" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M97" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N97" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O97" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P97" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6164,46 +6164,46 @@
         <v>97</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E98" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F98" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G98" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H98" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I98" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J98" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K98" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L98" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M98" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N98" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O98" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P98" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6215,46 +6215,46 @@
         <v>98</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E99" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F99" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G99" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H99" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I99" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J99" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K99" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L99" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M99" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N99" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O99" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P99" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6266,46 +6266,46 @@
         <v>99</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D100" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E100" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F100" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G100" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H100" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I100" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J100" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K100" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L100" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M100" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N100" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O100" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P100" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6317,46 +6317,46 @@
         <v>100</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E101" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F101" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G101" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H101" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I101" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J101" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K101" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L101" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M101" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N101" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O101" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P101" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6368,46 +6368,46 @@
         <v>101</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E102" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F102" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G102" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H102" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I102" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J102" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K102" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L102" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M102" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N102" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O102" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P102" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6419,46 +6419,46 @@
         <v>102</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D103" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E103" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F103" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G103" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H103" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I103" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J103" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K103" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L103" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M103" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N103" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O103" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P103" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6470,46 +6470,46 @@
         <v>103</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E104" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F104" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G104" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H104" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I104" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J104" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K104" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L104" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M104" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N104" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O104" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P104" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6521,46 +6521,46 @@
         <v>104</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F105" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G105" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H105" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I105" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J105" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K105" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L105" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M105" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N105" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O105" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P105" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6572,46 +6572,46 @@
         <v>105</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D106" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E106" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F106" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G106" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H106" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I106" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J106" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K106" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L106" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M106" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N106" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O106" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P106" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6623,46 +6623,46 @@
         <v>106</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E107" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G107" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H107" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I107" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J107" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K107" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L107" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M107" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N107" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O107" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P107" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6674,46 +6674,46 @@
         <v>107</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E108" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G108" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H108" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I108" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J108" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K108" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L108" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M108" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N108" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O108" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P108" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6725,46 +6725,46 @@
         <v>108</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E109" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F109" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G109" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H109" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I109" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J109" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K109" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L109" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M109" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N109" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O109" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P109" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6776,46 +6776,46 @@
         <v>109</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D110" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E110" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F110" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G110" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H110" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I110" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J110" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K110" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L110" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M110" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N110" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O110" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P110" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6827,46 +6827,46 @@
         <v>110</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E111" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F111" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G111" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H111" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I111" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J111" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K111" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L111" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M111" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N111" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O111" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P111" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6878,46 +6878,46 @@
         <v>111</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D112" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E112" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G112" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H112" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I112" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J112" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K112" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L112" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M112" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N112" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O112" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P112" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6929,46 +6929,46 @@
         <v>112</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D113" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E113" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G113" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H113" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I113" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J113" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K113" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L113" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M113" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N113" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O113" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P113" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6980,46 +6980,46 @@
         <v>113</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D114" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E114" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F114" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G114" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H114" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I114" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J114" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K114" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L114" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M114" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N114" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O114" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P114" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7031,46 +7031,46 @@
         <v>114</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D115" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E115" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F115" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G115" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H115" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I115" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J115" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K115" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L115" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M115" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N115" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O115" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P115" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7082,46 +7082,46 @@
         <v>115</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D116" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E116" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F116" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G116" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H116" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I116" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J116" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K116" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L116" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M116" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N116" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O116" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P116" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7133,46 +7133,46 @@
         <v>116</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D117" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E117" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F117" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G117" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H117" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I117" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J117" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K117" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L117" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M117" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N117" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O117" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P117" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7184,46 +7184,46 @@
         <v>117</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G118" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H118" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I118" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J118" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K118" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L118" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M118" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N118" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O118" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P118" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7235,46 +7235,46 @@
         <v>118</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E119" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F119" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G119" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H119" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I119" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J119" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K119" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="L119" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="M119" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N119" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="O119" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="P119" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -7310,7 +7310,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F9" activeCellId="1" sqref="C9:D9 F9"/>
+      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16008,7 +16008,7 @@
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="C9:D9 A3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16050,7 +16050,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="16" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>179</v>
@@ -16082,386 +16082,386 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I3" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J3" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H4" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J4" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I5" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J5" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J7" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E8" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G8" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J8" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I10" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J10" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H11" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J11" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H12" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J12" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J13" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E14" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I14" s="20" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J14" s="18" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
